--- a/Sample soundmaster databse.xlsx
+++ b/Sample soundmaster databse.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesandrews/Documents/personal projects/SoundMaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F75CD76-9400-3A4E-B29F-A5842D5C7508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E405DB03-CCDA-9849-AECB-A22A4B972E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{F4280F80-53EB-1E4E-BBDE-46B33D1DEA2A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" activeTab="1" xr2:uid="{F4280F80-53EB-1E4E-BBDE-46B33D1DEA2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stageboxes" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage box ports" sheetId="6" r:id="rId2"/>
+    <sheet name="Showstagebox" sheetId="7" r:id="rId3"/>
+    <sheet name="Communication protcols" sheetId="3" r:id="rId4"/>
+    <sheet name="Desks" sheetId="2" r:id="rId5"/>
+    <sheet name="Surfaces" sheetId="5" r:id="rId6"/>
+    <sheet name="Stage box" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,6 +39,206 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>AR 8/4</t>
+  </si>
+  <si>
+    <t>Allen + Heath</t>
+  </si>
+  <si>
+    <t>Dx</t>
+  </si>
+  <si>
+    <t>Yammaha</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Dsnake</t>
+  </si>
+  <si>
+    <t>GLD 80</t>
+  </si>
+  <si>
+    <t>DM7</t>
+  </si>
+  <si>
+    <t>SQ5</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>native protocols</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>additional protocols</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>aio</t>
+  </si>
+  <si>
+    <t>DM0</t>
+  </si>
+  <si>
+    <t>expansion slots</t>
+  </si>
+  <si>
+    <t>MADI</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio </t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>c2500</t>
+  </si>
+  <si>
+    <t>Dlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlive </t>
+  </si>
+  <si>
+    <t>c1500</t>
+  </si>
+  <si>
+    <t>S7000</t>
+  </si>
+  <si>
+    <t>Stagebox ID</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>XLR</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Keys 1L</t>
+  </si>
+  <si>
+    <t>Keys 1R</t>
+  </si>
+  <si>
+    <t>Keys2L</t>
+  </si>
+  <si>
+    <t>Keys2R</t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t>T-bone</t>
+  </si>
+  <si>
+    <t>SM57</t>
+  </si>
+  <si>
+    <t>Trumpet</t>
+  </si>
+  <si>
+    <t>NT5</t>
+  </si>
+  <si>
+    <t>OH L</t>
+  </si>
+  <si>
+    <t>OH R</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>SnareT</t>
+  </si>
+  <si>
+    <t>SnareB</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>IEM</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Keys1</t>
+  </si>
+  <si>
+    <t>Keys2</t>
+  </si>
+  <si>
+    <t>Tumpet</t>
+  </si>
+  <si>
+    <t>Drums</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,9 +611,1538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25680CBC-C428-EE45-8DF9-B95AD892C565}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="215" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D66BCC-11D3-8343-93CA-D95740927C67}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E4A84-BEAB-5C4D-A44A-DD8E51C54CE0}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192D67FF-737E-4344-B7B5-FE9CF4E1FF28}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="390" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552BD42E-E981-2F41-AEB9-965DB5516161}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF62D6C6-D1AB-364B-AFC6-5BCC6FA41D8B}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="400" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE443AE6-770E-B445-89BC-B7EFF0E413E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="221" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
